--- a/data/trans_dic/P5_7-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_7-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de ventanas al exterior en su vivienda</t>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>93,77%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,6; 99,32</t>
+          <t>94,08; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,18; 98,7</t>
+          <t>59,94; 98,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,43; 99,19</t>
+          <t>91,14; 98,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,36; 98,5</t>
+          <t>93,08; 98,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,82; 99,03</t>
+          <t>94,51; 98,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,41; 98,0</t>
+          <t>81,2; 97,83</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>99,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>98,46%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,88; 98,24</t>
+          <t>94,8; 98,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,5</t>
+          <t>95,86; 99,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,82; 98,42</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,53</t>
+          <t>97,59; 99,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,38; 98,11</t>
+          <t>97,19; 99,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>96,37; 98,31</t>
+          <t>97,37; 99,21</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>96,76%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,11; 98,34</t>
+          <t>93,62; 98,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,09; 99,09</t>
+          <t>94,16; 98,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,07; 98,92</t>
+          <t>94,0; 98,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,12; 98,63</t>
+          <t>93,93; 98,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,25; 98,45</t>
+          <t>94,71; 98,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>96,24; 98,5</t>
+          <t>94,98; 98,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,42%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,47; 98,19</t>
+          <t>96,23; 98,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,1</t>
+          <t>96,41; 99,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,88; 98,41</t>
+          <t>96,31; 98,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,13</t>
+          <t>94,93; 98,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,95; 98,07</t>
+          <t>96,67; 98,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,84; 97,85</t>
+          <t>96,19; 98,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>97,39%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>96,99%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>97,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>97,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>96,35; 98,08</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94,26; 98,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96,91; 98,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96,36; 98,14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96,92; 98,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>95,94; 97,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>222470</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>305134</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>251296</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>408365</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>473767</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>713499</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>213086; 226494</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>203337; 334682</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>238496; 257663</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>392539; 416744</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>461403; 482085</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>617849; 744419</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>680.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>633792</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>912616</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>710984</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>990127</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1344776</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1902743</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>617004; 642738</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>893994; 923631</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>700067; 715102</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>975902; 997453</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1327587; 1355775</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1881821; 1917369</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>441029</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>694573</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>515391</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>742043</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>956421</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1436616</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>426610; 450756</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>673824; 707373</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>499804; 524969</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>722523; 755518</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>935196; 969829</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1410253; 1455392</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>783.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>899.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1682.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>957.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2060108</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1428710</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2038563</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1358309</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4098672</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2787018</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2034746; 2079147</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1405000; 1442821</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2012640; 2056785</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1332254; 1377784</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4064159; 4126675</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2751868; 2812153</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1311.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1122.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1558.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1308.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2869.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2430.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3357401</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3341032</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3516236</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3498843</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6873635</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6839876</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3321487; 3381322</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3247000; 3381790</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3487228; 3539669</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3463635; 3527558</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6828670; 6908298</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6753311; 6886954</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>